--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lifea\OneDrive\login_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF89C27-2620-4EC1-9767-274835D24317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92ABAB6-E4C3-4119-8AAF-4F29A9935341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{37792527-2230-4A4F-90E0-CC09DE8E3E92}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="504">
   <si>
     <t>one login page for all types of users</t>
   </si>
@@ -1514,6 +1514,36 @@
   </si>
   <si>
     <t>page reload, empty form</t>
+  </si>
+  <si>
+    <t>password: Any_wrong_passw10</t>
+  </si>
+  <si>
+    <t>Please, enter valid password red message appeared under password field</t>
+  </si>
+  <si>
+    <t>click "Forgot password?" link</t>
+  </si>
+  <si>
+    <t>password restoration page opened</t>
+  </si>
+  <si>
+    <t>enter username to the form and click "OK"</t>
+  </si>
+  <si>
+    <t>message to user email with restoration link</t>
+  </si>
+  <si>
+    <t>create new password</t>
+  </si>
+  <si>
+    <t>login with new password</t>
+  </si>
+  <si>
+    <t>restore password page elements</t>
+  </si>
+  <si>
+    <t>middle</t>
   </si>
 </sst>
 </file>
@@ -2019,16 +2049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2063,6 +2084,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2776,7 +2806,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,29 +3222,29 @@
       <c r="E2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="95" t="s">
+      <c r="K2" s="105"/>
+      <c r="L2" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="95"/>
-      <c r="N2" s="94" t="s">
+      <c r="M2" s="106"/>
+      <c r="N2" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94" t="s">
+      <c r="O2" s="105"/>
+      <c r="P2" s="105" t="s">
         <v>447</v>
       </c>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105" t="s">
         <v>446</v>
       </c>
-      <c r="S2" s="94"/>
+      <c r="S2" s="105"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3232,7 +3262,7 @@
       <c r="E3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="93"/>
+      <c r="I3" s="92"/>
       <c r="J3" s="4" t="s">
         <v>423</v>
       </c>
@@ -3346,12 +3376,12 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="15"/>
       <c r="I6" s="1">
         <v>3</v>
@@ -3387,10 +3417,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="13" t="s">
         <v>117</v>
       </c>
@@ -3875,17 +3905,17 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104" t="s">
+      <c r="C18" s="100"/>
+      <c r="D18" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="104"/>
+      <c r="E18" s="101"/>
       <c r="I18" s="1">
         <v>15</v>
       </c>
@@ -3921,7 +3951,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="103"/>
       <c r="B19" s="11" t="s">
         <v>130</v>
       </c>
@@ -3978,7 +4008,7 @@
       <c r="C20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="96" t="s">
         <v>136</v>
       </c>
       <c r="E20" s="1">
@@ -4028,7 +4058,7 @@
       <c r="C21" s="1">
         <v>18</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -4076,7 +4106,7 @@
       <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="101"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -7254,6 +7284,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A6:D6"/>
@@ -7263,13 +7300,6 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7279,10 +7309,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D6175-20E7-40EF-B535-DD7958545277}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,7 +7669,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="52"/>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>27</v>
       </c>
@@ -7736,7 +7766,7 @@
       <c r="L15" s="34"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>23</v>
       </c>
@@ -7768,322 +7798,296 @@
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="39">
         <v>24</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="35" t="s">
+      <c r="H17" s="67"/>
+      <c r="I17" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="39">
+        <v>57</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="60"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
         <v>25</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C21" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E21" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F21" s="51" t="s">
         <v>411</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G21" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="35" t="s">
+      <c r="H21" s="70"/>
+      <c r="I21" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
         <v>5</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B22" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C22" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D22" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E22" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F22" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G22" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H22" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I22" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="57" t="s">
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="60"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="57" t="s">
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="60"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="60"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="57" t="s">
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="60"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="60"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62" t="s">
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I26" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
         <v>19</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B27" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C27" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D27" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E27" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F27" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G27" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H27" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I27" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J27" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="50" t="s">
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="50" t="s">
         <v>468</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J28" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
-        <v>2</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="38"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
-        <v>10</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="35"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="38"/>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
-        <v>11</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="38"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>63</v>
@@ -8095,20 +8099,16 @@
         <v>61</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>62</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35" t="s">
-        <v>462</v>
+        <v>69</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="34"/>
@@ -8116,19 +8116,19 @@
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>459</v>
+        <v>285</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>411</v>
@@ -8138,16 +8138,18 @@
       </c>
       <c r="H30" s="35"/>
       <c r="I30" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="J30" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>73</v>
+      </c>
       <c r="K30" s="35"/>
       <c r="L30" s="34"/>
       <c r="M30" s="38"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>63</v>
@@ -8159,7 +8161,7 @@
         <v>61</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>460</v>
+        <v>286</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>411</v>
@@ -8169,19 +8171,21 @@
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="J31" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>77</v>
+      </c>
       <c r="K31" s="35"/>
       <c r="L31" s="34"/>
       <c r="M31" s="38"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>65</v>
@@ -8190,299 +8194,309 @@
         <v>61</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="35" t="s">
-        <v>89</v>
-      </c>
+      <c r="H32" s="35"/>
       <c r="I32" s="35" t="s">
-        <v>310</v>
+        <v>462</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="34"/>
       <c r="M32" s="38"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
-        <v>3</v>
-      </c>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="33">
+        <v>8</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>9</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>4</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C35" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D35" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
-    </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
-        <v>26</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="F35" s="44" t="s">
+      <c r="E35" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" s="34" t="s">
         <v>411</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="67"/>
-      <c r="I35" s="43" t="s">
+      <c r="H35" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" s="35"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="38"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>3</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="43"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="45"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="52"/>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>26</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="67"/>
+      <c r="I38" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="50" t="s">
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="45"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="64"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="J39" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="52"/>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="52"/>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
         <v>14</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B40" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C40" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D40" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E40" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F40" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G40" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H40" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I40" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="J37" s="35" t="s">
+      <c r="J40" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="38"/>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="K40" s="35"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
         <v>15</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B41" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C41" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D41" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E41" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F41" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G41" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H41" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="I38" s="35" t="s">
+      <c r="I41" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="J38" s="35" t="s">
+      <c r="J41" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="K38" s="35"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="38"/>
-    </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
-        <v>16</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="38"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
-        <v>28</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="72" t="s">
-        <v>387</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G40" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="67" t="s">
-        <v>344</v>
-      </c>
-      <c r="I40" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="J40" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" s="72"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="73"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="76"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
-        <v>29</v>
-      </c>
-      <c r="B42" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="77" t="s">
-        <v>294</v>
+        <v>61</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>411</v>
@@ -8490,651 +8504,681 @@
       <c r="G42" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="66" t="s">
+      <c r="H42" s="35"/>
+      <c r="I42" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="K42" s="35"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="38"/>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <v>28</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="J43" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="72"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="73"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="76"/>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
+        <v>29</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="I42" s="77" t="s">
+      <c r="I45" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="J42" s="77" t="s">
+      <c r="J45" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K42" s="77"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="78"/>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="K45" s="77"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="78"/>
+    </row>
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
         <v>30</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B46" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C46" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D46" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="E46" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F46" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G46" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="66" t="s">
+      <c r="H46" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="I43" s="77" t="s">
+      <c r="I46" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="J43" s="77" t="s">
+      <c r="J46" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="K43" s="77"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="78"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
+      <c r="K46" s="77"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="78"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
         <v>20</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B47" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C47" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D47" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E47" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F47" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G47" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="35" t="s">
+      <c r="H47" s="66"/>
+      <c r="I47" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="J44" s="35" t="s">
+      <c r="J47" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="38"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
+      <c r="K47" s="35"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="38"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="39">
         <v>21</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B48" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C48" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D48" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E48" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F48" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G45" s="42" t="s">
+      <c r="G48" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="67"/>
-      <c r="I45" s="43" t="s">
+      <c r="H48" s="67"/>
+      <c r="I48" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="J45" s="43" t="s">
+      <c r="J48" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-    </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="57" t="s">
+      <c r="K48" s="43"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="68"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="J46" s="57" t="s">
+      <c r="J49" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="K46" s="57"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="60"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="57" t="s">
+      <c r="K49" s="57"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="60"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="68"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="J47" s="57" t="s">
+      <c r="J50" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="K47" s="57"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="60"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="J48" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="33">
-        <v>17</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="I49" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="38"/>
-    </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="39">
-        <v>32</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G50" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="67" t="s">
-        <v>344</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="J50" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="K50" s="43"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="45"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="60"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="51"/>
       <c r="E51" s="50"/>
       <c r="F51" s="51"/>
       <c r="G51" s="61"/>
-      <c r="H51" s="70" t="s">
-        <v>347</v>
-      </c>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>386</v>
+      </c>
       <c r="K51" s="50"/>
       <c r="L51" s="51"/>
       <c r="M51" s="52"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="39">
+    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
+        <v>17</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K52" s="35"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="38"/>
+    </row>
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="39">
+        <v>32</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J53" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="K53" s="43"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="45"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="64"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="52"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="39">
         <v>34</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B55" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C55" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D55" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E55" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F55" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G52" s="53" t="s">
+      <c r="G55" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="67" t="s">
+      <c r="H55" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I55" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="45"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="70" t="s">
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="45"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="64"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="I53" s="50" t="s">
+      <c r="I56" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="J53" s="50" t="s">
+      <c r="J56" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="52"/>
-    </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="52"/>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="39">
         <v>33</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B57" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C57" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D57" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E57" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F57" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G54" s="53" t="s">
+      <c r="G57" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="67" t="s">
+      <c r="H57" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="I54" s="43" t="s">
+      <c r="I57" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="J54" s="43" t="s">
+      <c r="J57" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="K54" s="43"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="45"/>
-    </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="70" t="s">
+      <c r="K57" s="43"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="45"/>
+    </row>
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="64"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I58" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="52"/>
-    </row>
-    <row r="56" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="52"/>
+    </row>
+    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="39">
         <v>36</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B59" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C59" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D59" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E59" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F59" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G56" s="53" t="s">
+      <c r="G59" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="67" t="s">
+      <c r="H59" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I59" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="J56" s="43" t="s">
+      <c r="J59" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="K56" s="43"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="45"/>
-    </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="70" t="s">
+      <c r="K59" s="43"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="45"/>
+    </row>
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="64"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="52"/>
-    </row>
-    <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="52"/>
+    </row>
+    <row r="61" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="39">
         <v>37</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B61" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C61" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D61" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E61" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F61" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G58" s="53" t="s">
+      <c r="G61" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="43" t="s">
+      <c r="H61" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="I58" s="43" t="s">
+      <c r="I61" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="J58" s="43" t="s">
+      <c r="J61" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="K58" s="43"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="45"/>
-    </row>
-    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="50" t="s">
+      <c r="K61" s="43"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="45"/>
+    </row>
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="64"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="52"/>
-    </row>
-    <row r="60" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="39">
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="52"/>
+    </row>
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="39">
         <v>38</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B63" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C63" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D63" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E63" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F63" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G60" s="53" t="s">
+      <c r="G63" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H60" s="43" t="s">
+      <c r="H63" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="I63" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="J60" s="43" t="s">
+      <c r="J63" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="45"/>
-    </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="57" t="s">
+      <c r="K63" s="43"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="45"/>
+    </row>
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="68"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57" t="s">
+      <c r="I64" s="57"/>
+      <c r="J64" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="K61" s="57"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="60"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="K62" s="57"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="60"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50" t="s">
-        <v>391</v>
-      </c>
-      <c r="K63" s="50"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="52"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="39">
-        <v>40</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G64" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="45"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="60"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="68"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
+      <c r="C65" s="79"/>
       <c r="D65" s="56"/>
       <c r="E65" s="57"/>
       <c r="F65" s="56"/>
       <c r="G65" s="58"/>
-      <c r="H65" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="I65" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="J65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57" t="s">
+        <v>390</v>
+      </c>
       <c r="K65" s="57"/>
       <c r="L65" s="56"/>
       <c r="M65" s="60"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="J66" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="K66" s="57"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="60"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="K66" s="50"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="52"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="60"/>
+      <c r="A67" s="39">
+        <v>40</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G67" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="45"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="68"/>
@@ -9144,9 +9188,11 @@
       <c r="E68" s="57"/>
       <c r="F68" s="56"/>
       <c r="G68" s="58"/>
-      <c r="H68" s="57"/>
+      <c r="H68" s="57" t="s">
+        <v>345</v>
+      </c>
       <c r="I68" s="57" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
@@ -9154,56 +9200,40 @@
       <c r="M68" s="60"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="J69" s="50" t="s">
+      <c r="A69" s="68"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="J69" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="K69" s="50"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="52"/>
-    </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="39">
-        <v>41</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="F70" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G70" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="I70" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="45"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="60"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="68"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="60"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="68"/>
@@ -9213,11 +9243,9 @@
       <c r="E71" s="57"/>
       <c r="F71" s="56"/>
       <c r="G71" s="58"/>
-      <c r="H71" s="57" t="s">
-        <v>345</v>
-      </c>
+      <c r="H71" s="57"/>
       <c r="I71" s="57" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J71" s="57"/>
       <c r="K71" s="57"/>
@@ -9225,40 +9253,56 @@
       <c r="M71" s="60"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="J72" s="57" t="s">
+      <c r="A72" s="64"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J72" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="K72" s="57"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="60"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="60"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="52"/>
+    </row>
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="39">
+        <v>41</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="F73" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G73" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I73" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="45"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="68"/>
@@ -9268,9 +9312,11 @@
       <c r="E74" s="57"/>
       <c r="F74" s="56"/>
       <c r="G74" s="58"/>
-      <c r="H74" s="57"/>
+      <c r="H74" s="57" t="s">
+        <v>345</v>
+      </c>
       <c r="I74" s="57" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J74" s="57"/>
       <c r="K74" s="57"/>
@@ -9278,56 +9324,40 @@
       <c r="M74" s="60"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="64"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="J75" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="K75" s="50"/>
-      <c r="L75" s="51"/>
-      <c r="M75" s="52"/>
-    </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="39">
-        <v>42</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="F76" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G76" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="I76" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="45"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="J75" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="K75" s="57"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="60"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="68"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="60"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="68"/>
@@ -9337,11 +9367,9 @@
       <c r="E77" s="57"/>
       <c r="F77" s="56"/>
       <c r="G77" s="58"/>
-      <c r="H77" s="57" t="s">
-        <v>360</v>
-      </c>
+      <c r="H77" s="57"/>
       <c r="I77" s="57" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J77" s="57"/>
       <c r="K77" s="57"/>
@@ -9349,42 +9377,58 @@
       <c r="M77" s="60"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="68"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="J78" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="K78" s="57"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="60"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="60"/>
-    </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="64"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J78" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="K78" s="50"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="52"/>
+    </row>
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="39">
+        <v>42</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="F79" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G79" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I79" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="45"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="68"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -9392,9 +9436,11 @@
       <c r="E80" s="57"/>
       <c r="F80" s="56"/>
       <c r="G80" s="58"/>
-      <c r="H80" s="57"/>
+      <c r="H80" s="57" t="s">
+        <v>360</v>
+      </c>
       <c r="I80" s="57" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J80" s="57"/>
       <c r="K80" s="57"/>
@@ -9411,68 +9457,50 @@
       <c r="G81" s="58"/>
       <c r="H81" s="57"/>
       <c r="I81" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="J81" s="57"/>
+        <v>355</v>
+      </c>
+      <c r="J81" s="57" t="s">
+        <v>112</v>
+      </c>
       <c r="K81" s="57"/>
       <c r="L81" s="56"/>
       <c r="M81" s="60"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="64"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="J82" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="K82" s="50"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="52"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="39">
-        <v>39</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F83" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G83" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H83" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="I83" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="J83" s="43" t="s">
-        <v>394</v>
-      </c>
-      <c r="K83" s="43"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="45"/>
-    </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="68"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="60"/>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="68"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="60"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="68"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -9480,371 +9508,375 @@
       <c r="E84" s="57"/>
       <c r="F84" s="56"/>
       <c r="G84" s="58"/>
-      <c r="H84" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57" t="s">
-        <v>479</v>
-      </c>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="J84" s="57"/>
       <c r="K84" s="57"/>
       <c r="L84" s="56"/>
       <c r="M84" s="60"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="57" t="s">
+      <c r="A85" s="64"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J85" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="K85" s="50"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="52"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="39">
+        <v>39</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G86" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="I86" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="J86" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="K86" s="43"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="45"/>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="68"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="K87" s="57"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="60"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="68"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="K85" s="57"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="60"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50" t="s">
+      <c r="K88" s="57"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="60"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="64"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="K86" s="50"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="52"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
+      <c r="K89" s="50"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="52"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="39">
         <v>43</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B90" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="44" t="s">
+      <c r="C90" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D90" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="43" t="s">
+      <c r="E90" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F90" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G87" s="53" t="s">
+      <c r="G90" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H87" s="43" t="s">
+      <c r="H90" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="I87" s="43" t="s">
+      <c r="I90" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="45"/>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="50" t="s">
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="45"/>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="64"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50" t="s">
+      <c r="I91" s="50"/>
+      <c r="J91" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="K88" s="50"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="52"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="39">
+      <c r="K91" s="50"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="52"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="39">
         <v>44</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B92" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C92" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="44" t="s">
+      <c r="D92" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="E92" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F89" s="44" t="s">
+      <c r="F92" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G89" s="53" t="s">
+      <c r="G92" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="43" t="s">
+      <c r="H92" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="I89" s="43" t="s">
+      <c r="I92" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="J89" s="43" t="s">
+      <c r="J92" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="K89" s="43"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="45"/>
-    </row>
-    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="68"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="57" t="s">
+      <c r="K92" s="43"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="45"/>
+    </row>
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="68"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="I90" s="57" t="s">
+      <c r="I93" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="J90" s="57" t="s">
+      <c r="J93" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="K90" s="57"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="60"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="68"/>
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57" t="s">
+      <c r="K93" s="57"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="60"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="68"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="J91" s="57" t="s">
+      <c r="J94" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="K91" s="57"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="60"/>
-    </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="57" t="s">
-        <v>363</v>
-      </c>
-      <c r="J92" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="K92" s="57"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="60"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="64"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="51"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="J93" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="K93" s="50"/>
-      <c r="L93" s="51"/>
-      <c r="M93" s="52"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="39">
-        <v>35</v>
-      </c>
-      <c r="B94" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="F94" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G94" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" s="67" t="s">
-        <v>346</v>
-      </c>
-      <c r="I94" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="45"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K94" s="57"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="60"/>
+    </row>
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="68"/>
       <c r="B95" s="56"/>
-      <c r="C95" s="79"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="56"/>
       <c r="E95" s="57"/>
       <c r="F95" s="56"/>
       <c r="G95" s="58"/>
-      <c r="H95" s="69" t="s">
-        <v>345</v>
-      </c>
+      <c r="H95" s="57"/>
       <c r="I95" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="J95" s="57"/>
+        <v>363</v>
+      </c>
+      <c r="J95" s="57" t="s">
+        <v>398</v>
+      </c>
       <c r="K95" s="57"/>
       <c r="L95" s="56"/>
       <c r="M95" s="60"/>
     </row>
-    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="68"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="J96" s="57"/>
-      <c r="K96" s="57"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="60"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="68"/>
-      <c r="B97" s="56"/>
-      <c r="C97" s="79"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="69"/>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="64"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="J96" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K96" s="50"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="52"/>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="68">
+        <v>56</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D97" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E97" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G97" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="43" t="s">
+        <v>346</v>
+      </c>
       <c r="I97" s="57" t="s">
-        <v>475</v>
-      </c>
-      <c r="J97" s="57"/>
+        <v>366</v>
+      </c>
+      <c r="J97" s="57" t="s">
+        <v>495</v>
+      </c>
       <c r="K97" s="57"/>
       <c r="L97" s="56"/>
       <c r="M97" s="60"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="J98" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="K98" s="50"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="52"/>
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="68"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="I98" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="J98" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="K98" s="57"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="60"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="39">
-        <v>46</v>
-      </c>
-      <c r="B99" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E99" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="F99" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G99" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="I99" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="45"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="J99" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="K99" s="57"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="60"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="68"/>
       <c r="B100" s="56"/>
-      <c r="C100" s="79"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="56"/>
       <c r="E100" s="57"/>
       <c r="F100" s="56"/>
       <c r="G100" s="58"/>
-      <c r="H100" s="57" t="s">
-        <v>369</v>
-      </c>
+      <c r="H100" s="57"/>
       <c r="I100" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="J100" s="57" t="s">
-        <v>112</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="J100" s="57"/>
       <c r="K100" s="57"/>
       <c r="L100" s="56"/>
       <c r="M100" s="60"/>
@@ -9852,36 +9884,54 @@
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="68"/>
       <c r="B101" s="56"/>
-      <c r="C101" s="79"/>
+      <c r="C101" s="56"/>
       <c r="D101" s="56"/>
       <c r="E101" s="57"/>
       <c r="F101" s="56"/>
       <c r="G101" s="58"/>
       <c r="H101" s="57"/>
       <c r="I101" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="J101" s="57"/>
+        <v>501</v>
+      </c>
+      <c r="J101" s="57" t="s">
+        <v>112</v>
+      </c>
       <c r="K101" s="57"/>
       <c r="L101" s="56"/>
       <c r="M101" s="60"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="68"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="J102" s="57"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="60"/>
+      <c r="A102" s="39">
+        <v>35</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G102" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="67" t="s">
+        <v>346</v>
+      </c>
+      <c r="I102" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="45"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="68"/>
@@ -9891,9 +9941,11 @@
       <c r="E103" s="57"/>
       <c r="F103" s="56"/>
       <c r="G103" s="58"/>
-      <c r="H103" s="57"/>
+      <c r="H103" s="69" t="s">
+        <v>345</v>
+      </c>
       <c r="I103" s="57" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="J103" s="57"/>
       <c r="K103" s="57"/>
@@ -9901,182 +9953,128 @@
       <c r="M103" s="60"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="51"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="J104" s="50" t="s">
+      <c r="A104" s="68"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="J104" s="57"/>
+      <c r="K104" s="57"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="60"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="68"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="60"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="64"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="J106" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="K104" s="50"/>
-      <c r="L104" s="51"/>
-      <c r="M104" s="52"/>
-    </row>
-    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="33">
-        <v>49</v>
-      </c>
-      <c r="B105" s="34" t="s">
+      <c r="K106" s="50"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="52"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="39">
+        <v>46</v>
+      </c>
+      <c r="B107" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="F105" s="34" t="s">
+      <c r="C107" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="F107" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G105" s="36" t="s">
+      <c r="G107" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H105" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="I105" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="J105" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="K105" s="35"/>
-      <c r="L105" s="34"/>
-      <c r="M105" s="38"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="39">
-        <v>52</v>
-      </c>
-      <c r="B106" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D106" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="E106" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="F106" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G106" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H106" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="I106" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="J106" s="43" t="s">
+      <c r="H107" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="I107" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="44"/>
+      <c r="M107" s="45"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="68"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="I108" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="J108" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="K106" s="43"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="45"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="64"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="74"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="50"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="I107" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="J107" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="K107" s="50"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="52"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="33">
-        <v>53</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="F108" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="G108" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="J108" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="K108" s="35"/>
-      <c r="L108" s="34"/>
-      <c r="M108" s="38"/>
-    </row>
-    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="39">
-        <v>47</v>
-      </c>
-      <c r="B109" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D109" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="E109" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="F109" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="G109" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H109" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="I109" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="J109" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="K109" s="43"/>
-      <c r="L109" s="44"/>
-      <c r="M109" s="45"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="60"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="68"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="J109" s="57"/>
+      <c r="K109" s="57"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="60"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="68"/>
@@ -10086,105 +10084,101 @@
       <c r="E110" s="57"/>
       <c r="F110" s="56"/>
       <c r="G110" s="58"/>
-      <c r="H110" s="57" t="s">
-        <v>370</v>
-      </c>
+      <c r="H110" s="57"/>
       <c r="I110" s="57" t="s">
-        <v>483</v>
-      </c>
-      <c r="J110" s="57" t="s">
-        <v>95</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="J110" s="57"/>
       <c r="K110" s="57"/>
       <c r="L110" s="56"/>
       <c r="M110" s="60"/>
     </row>
-    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="64"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="74"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="J111" s="50" t="s">
-        <v>398</v>
-      </c>
-      <c r="K111" s="50"/>
-      <c r="L111" s="51"/>
-      <c r="M111" s="52"/>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="68"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+      <c r="L111" s="56"/>
+      <c r="M111" s="60"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="39">
-        <v>48</v>
-      </c>
-      <c r="B112" s="44" t="s">
+      <c r="A112" s="64"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J112" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="K112" s="50"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="52"/>
+    </row>
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="33">
+        <v>49</v>
+      </c>
+      <c r="B113" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C112" s="71" t="s">
+      <c r="C113" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="44" t="s">
+      <c r="D113" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E112" s="43" t="s">
-        <v>491</v>
-      </c>
-      <c r="F112" s="44" t="s">
+      <c r="E113" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="F113" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="G112" s="53" t="s">
+      <c r="G113" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H112" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="I112" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="45"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="64"/>
-      <c r="B113" s="51"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="50"/>
-      <c r="I113" s="50" t="s">
-        <v>373</v>
-      </c>
-      <c r="J113" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="K113" s="50"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="52"/>
+      <c r="H113" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="I113" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="J113" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="K113" s="35"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="38"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B114" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C114" s="44" t="s">
+      <c r="C114" s="71" t="s">
         <v>91</v>
       </c>
       <c r="D114" s="44" t="s">
         <v>161</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>490</v>
+        <v>304</v>
       </c>
       <c r="F114" s="44" t="s">
         <v>411</v>
@@ -10196,56 +10190,72 @@
         <v>346</v>
       </c>
       <c r="I114" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="J114" s="43"/>
+        <v>336</v>
+      </c>
+      <c r="J114" s="43" t="s">
+        <v>112</v>
+      </c>
       <c r="K114" s="43"/>
       <c r="L114" s="44"/>
       <c r="M114" s="45"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="57" t="s">
+      <c r="A115" s="64"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="I115" s="57" t="s">
-        <v>490</v>
-      </c>
-      <c r="J115" s="57"/>
-      <c r="K115" s="57"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="60"/>
-    </row>
-    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="I116" s="50" t="s">
-        <v>492</v>
-      </c>
-      <c r="J116" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="K116" s="50"/>
-      <c r="L116" s="51"/>
-      <c r="M116" s="52"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I115" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="J115" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K115" s="50"/>
+      <c r="L115" s="51"/>
+      <c r="M115" s="52"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="33">
+        <v>53</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E116" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="F116" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="G116" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="J116" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="K116" s="35"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="38"/>
+    </row>
+    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B117" s="44" t="s">
         <v>64</v>
@@ -10257,7 +10267,7 @@
         <v>161</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>164</v>
+        <v>481</v>
       </c>
       <c r="F117" s="44" t="s">
         <v>411</v>
@@ -10266,12 +10276,14 @@
         <v>62</v>
       </c>
       <c r="H117" s="43" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="I117" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="J117" s="43"/>
+        <v>353</v>
+      </c>
+      <c r="J117" s="43" t="s">
+        <v>482</v>
+      </c>
       <c r="K117" s="43"/>
       <c r="L117" s="44"/>
       <c r="M117" s="45"/>
@@ -10285,226 +10297,424 @@
       <c r="F118" s="56"/>
       <c r="G118" s="58"/>
       <c r="H118" s="57" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I118" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="J118" s="57"/>
+        <v>483</v>
+      </c>
+      <c r="J118" s="57" t="s">
+        <v>95</v>
+      </c>
       <c r="K118" s="57"/>
       <c r="L118" s="56"/>
       <c r="M118" s="60"/>
     </row>
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="68"/>
-      <c r="B119" s="56"/>
-      <c r="C119" s="79"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="58"/>
-      <c r="H119" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="I119" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="J119" s="57" t="s">
-        <v>482</v>
-      </c>
-      <c r="K119" s="57"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="60"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="50"/>
+      <c r="I119" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J119" s="50" t="s">
+        <v>398</v>
+      </c>
+      <c r="K119" s="50"/>
+      <c r="L119" s="51"/>
+      <c r="M119" s="52"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="64"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="74"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="61"/>
-      <c r="H120" s="50"/>
-      <c r="I120" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="J120" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="K120" s="50"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="52"/>
+      <c r="A120" s="39">
+        <v>48</v>
+      </c>
+      <c r="B120" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="F120" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G120" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H120" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="I120" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="44"/>
+      <c r="M120" s="45"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="39">
-        <v>50</v>
-      </c>
-      <c r="B121" s="44" t="s">
+      <c r="A121" s="64"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="J121" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K121" s="50"/>
+      <c r="L121" s="51"/>
+      <c r="M121" s="52"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="39">
+        <v>55</v>
+      </c>
+      <c r="B122" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="71" t="s">
+      <c r="C122" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D121" s="44" t="s">
+      <c r="D122" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E121" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="F121" s="44" t="s">
+      <c r="E122" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="F122" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G121" s="42" t="s">
+      <c r="G122" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H121" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="I121" s="43" t="s">
+      <c r="H122" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I122" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="J121" s="43"/>
-      <c r="K121" s="43"/>
-      <c r="L121" s="44"/>
-      <c r="M121" s="45"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="68"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="57"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="58"/>
-      <c r="H122" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="I122" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="J122" s="57" t="s">
-        <v>405</v>
-      </c>
-      <c r="K122" s="57"/>
-      <c r="L122" s="56"/>
-      <c r="M122" s="60"/>
-    </row>
-    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="44"/>
+      <c r="M122" s="45"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
       <c r="B123" s="56"/>
-      <c r="C123" s="79"/>
+      <c r="C123" s="56"/>
       <c r="D123" s="56"/>
       <c r="E123" s="57"/>
       <c r="F123" s="56"/>
-      <c r="G123" s="58"/>
+      <c r="G123" s="56"/>
       <c r="H123" s="57" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="I123" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="J123" s="57" t="s">
-        <v>482</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="J123" s="57"/>
       <c r="K123" s="57"/>
       <c r="L123" s="56"/>
       <c r="M123" s="60"/>
     </row>
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
-      <c r="B124" s="56"/>
-      <c r="C124" s="79"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="58"/>
-      <c r="H124" s="57" t="s">
+      <c r="A124" s="64"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="I124" s="57" t="s">
+      <c r="I124" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="J124" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="K124" s="50"/>
+      <c r="L124" s="51"/>
+      <c r="M124" s="52"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="39">
+        <v>51</v>
+      </c>
+      <c r="B125" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F125" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G125" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H125" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="I125" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="44"/>
+      <c r="M125" s="45"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="68"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="79"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="I126" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="60"/>
+    </row>
+    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="68"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="56"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="I127" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="J127" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="K127" s="57"/>
+      <c r="L127" s="56"/>
+      <c r="M127" s="60"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="64"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="51"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="50"/>
+      <c r="I128" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J128" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K128" s="50"/>
+      <c r="L128" s="51"/>
+      <c r="M128" s="52"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="39">
+        <v>50</v>
+      </c>
+      <c r="B129" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="F129" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="G129" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H129" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="I129" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="44"/>
+      <c r="M129" s="45"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="68"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="I130" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="J130" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="K130" s="57"/>
+      <c r="L130" s="56"/>
+      <c r="M130" s="60"/>
+    </row>
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="68"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="79"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="I131" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="J131" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="K131" s="57"/>
+      <c r="L131" s="56"/>
+      <c r="M131" s="60"/>
+    </row>
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="68"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="79"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="I132" s="57" t="s">
         <v>485</v>
       </c>
-      <c r="J124" s="57" t="s">
+      <c r="J132" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="K124" s="57"/>
-      <c r="L124" s="56"/>
-      <c r="M124" s="60"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
-      <c r="B125" s="51"/>
-      <c r="C125" s="74"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="50"/>
-      <c r="I125" s="50" t="s">
+      <c r="K132" s="57"/>
+      <c r="L132" s="56"/>
+      <c r="M132" s="60"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="64"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="61"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="J125" s="50" t="s">
+      <c r="J133" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="K125" s="50"/>
-      <c r="L125" s="51"/>
-      <c r="M125" s="52"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="39">
+      <c r="K133" s="50"/>
+      <c r="L133" s="51"/>
+      <c r="M133" s="52"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="39">
         <v>54</v>
       </c>
-      <c r="B126" s="44" t="s">
+      <c r="B134" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C126" s="71" t="s">
+      <c r="C134" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="D126" s="44" t="s">
+      <c r="D134" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="E126" s="43" t="s">
+      <c r="E134" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="F126" s="44" t="s">
+      <c r="F134" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G126" s="53" t="s">
+      <c r="G134" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H126" s="43" t="s">
+      <c r="H134" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="I126" s="43" t="s">
+      <c r="I134" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="J126" s="43" t="s">
+      <c r="J134" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="K126" s="43"/>
-      <c r="L126" s="44"/>
-      <c r="M126" s="45"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="64"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="50" t="s">
+      <c r="K134" s="43"/>
+      <c r="L134" s="44"/>
+      <c r="M134" s="45"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="64"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="51"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="I127" s="50" t="s">
+      <c r="I135" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="J127" s="50" t="s">
+      <c r="J135" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="K127" s="50"/>
-      <c r="L127" s="51"/>
-      <c r="M127" s="52"/>
+      <c r="K135" s="50"/>
+      <c r="L135" s="51"/>
+      <c r="M135" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{C3A4B88B-F7D7-4AF4-9168-61846240433A}">
@@ -10516,9 +10726,9 @@
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{3A461B03-5EE3-4065-AA53-B2AAACD7511C}"/>
     <hyperlink ref="H7" r:id="rId2" xr:uid="{4D9578CF-5FD2-46A0-B6E8-F2E1FA67CD83}"/>
-    <hyperlink ref="H19" location="'ui ux'!A1" display="Table 1 UI/UX" xr:uid="{C6B43CCD-444A-4B7E-9243-CD2D178533A9}"/>
-    <hyperlink ref="H24" location="'ui ux'!A16" display="Table 2 UI/UX" xr:uid="{E70CAE14-DF4C-4837-B771-F59E5F2F4797}"/>
-    <hyperlink ref="G114" r:id="rId3" xr:uid="{C7C83D97-C60E-4BBE-AC67-9B1D65AF1156}"/>
+    <hyperlink ref="H22" location="'ui ux'!A1" display="Table 1 UI/UX" xr:uid="{C6B43CCD-444A-4B7E-9243-CD2D178533A9}"/>
+    <hyperlink ref="H27" location="'ui ux'!A16" display="Table 2 UI/UX" xr:uid="{E70CAE14-DF4C-4837-B771-F59E5F2F4797}"/>
+    <hyperlink ref="G122" r:id="rId3" xr:uid="{C7C83D97-C60E-4BBE-AC67-9B1D65AF1156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lifea\OneDrive\login_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92ABAB6-E4C3-4119-8AAF-4F29A9935341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1B1D2-085D-41E1-B7F8-80FB005ED515}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{37792527-2230-4A4F-90E0-CC09DE8E3E92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{37792527-2230-4A4F-90E0-CC09DE8E3E92}"/>
   </bookViews>
   <sheets>
     <sheet name="spec" sheetId="1" r:id="rId1"/>
@@ -2049,7 +2049,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2084,15 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2171,23 +2171,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>150613</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292233</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2944A87-998E-4013-8923-8CA54FC04EF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A510B4-9B49-47F0-A133-2ADD26126BFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,8 +2209,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3960613"/>
-          <a:ext cx="3686175" cy="3916561"/>
+          <a:off x="5721483" y="0"/>
+          <a:ext cx="11623542" cy="5067300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,23 +2221,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>27383</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577751</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
+        <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C957D992-A0BD-47FA-A9E9-AF3F7B3930B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0780F579-EA27-42E3-91E8-3ED8C7C29B4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,8 +2259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790951" y="3962400"/>
-          <a:ext cx="3494482" cy="3695700"/>
+          <a:off x="19050" y="3867150"/>
+          <a:ext cx="2825651" cy="3391792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2271,23 +2271,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>186254</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181269</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>172351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9">
+        <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22083F9-AE9A-4472-AB32-6CABC48C0EBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF421541-1541-48E7-B575-B738B53754F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,8 +2309,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7444304" y="228600"/>
-          <a:ext cx="10157896" cy="5105400"/>
+          <a:off x="3067050" y="3819525"/>
+          <a:ext cx="2543469" cy="3401326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2805,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D05482-A492-45AE-85EC-5977D9947DB2}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4184F62A-C391-48D9-AA79-C550FC6B3C50}">
   <dimension ref="A1:Y149"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
@@ -3222,29 +3222,29 @@
       <c r="E2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="105" t="s">
+      <c r="J2" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106" t="s">
+      <c r="K2" s="94"/>
+      <c r="L2" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="105" t="s">
+      <c r="M2" s="95"/>
+      <c r="N2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105" t="s">
+      <c r="O2" s="94"/>
+      <c r="P2" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105" t="s">
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94" t="s">
         <v>446</v>
       </c>
-      <c r="S2" s="105"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3262,7 +3262,7 @@
       <c r="E3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="92"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="4" t="s">
         <v>423</v>
       </c>
@@ -3376,12 +3376,12 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="15"/>
       <c r="I6" s="1">
         <v>3</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="13" t="s">
         <v>117</v>
       </c>
@@ -3905,17 +3905,17 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101" t="s">
+      <c r="C18" s="103"/>
+      <c r="D18" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="101"/>
+      <c r="E18" s="104"/>
       <c r="I18" s="1">
         <v>15</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="11" t="s">
         <v>130</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="C20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="99" t="s">
         <v>136</v>
       </c>
       <c r="E20" s="1">
@@ -4058,7 +4058,7 @@
       <c r="C21" s="1">
         <v>18</v>
       </c>
-      <c r="D21" s="97"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="98"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -7284,13 +7284,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A6:D6"/>
@@ -7300,6 +7293,13 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7311,7 +7311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D6175-20E7-40EF-B535-DD7958545277}">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
